--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1014.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1014.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191535713533172</v>
+        <v>1.54194700717926</v>
       </c>
       <c r="B1">
-        <v>3.225385600309185</v>
+        <v>2.218854665756226</v>
       </c>
       <c r="C1">
-        <v>3.900980855393446</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.145747154734047</v>
+        <v>1.369795441627502</v>
       </c>
       <c r="E1">
-        <v>1.017757413292923</v>
+        <v>0.6508402824401855</v>
       </c>
     </row>
   </sheetData>
